--- a/TRIMAZKON/Katalog_kamerového_vybavení_projekt_- popis inspekce.xlsx
+++ b/TRIMAZKON/Katalog_kamerového_vybavení_projekt_- popis inspekce.xlsx
@@ -42,12 +42,30 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E90FF"/>
+        <bgColor rgb="001E90FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032CD32"/>
+        <bgColor rgb="0032CD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF4500"/>
+        <bgColor rgb="00FF4500"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -62,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -70,40 +88,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -499,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +541,7 @@
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Projekt: - popis inspekce
-Datum: 24.07.2024</t>
+Datum: 25.07.2024</t>
         </is>
       </c>
     </row>
@@ -569,7 +580,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Název stanice- popis inspekce</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -581,19 +592,19 @@
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-7525H</t>
+          <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
       <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>FH-2050</t>
         </is>
       </c>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>FH-SM-XLC</t>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>rozšíření kontroleru</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -605,13 +616,13 @@
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-1614H</t>
+          <t>3Z4S-LE SV-7525H</t>
         </is>
       </c>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="n"/>
+      <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
     </row>
     <row r="6">
@@ -621,107 +632,82 @@
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-5014H</t>
+          <t>3Z4S-LE SV-10028H</t>
         </is>
       </c>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="4" t="n"/>
-      <c r="I6" s="6" t="n"/>
+      <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FH-SC05R</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="n"/>
       <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-5014H</t>
+        </is>
+      </c>
       <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="n"/>
       <c r="H7" s="4" t="n"/>
-      <c r="I7" s="6" t="n"/>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>konzole</t>
+        </is>
+      </c>
       <c r="J7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="7" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>3Z4S-LE VS-HVA2524</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>kamera</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Název stanice</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="4" t="n"/>
-    </row>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FH-SM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FH-SC05R</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FH-SM</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
         <is>
           <t>FH-2050</t>
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14"/>
     <row r="15">
       <c r="A15" s="8" t="n"/>
@@ -732,27 +718,68 @@
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="8" t="n"/>
+      <c r="I15" s="8" t="n"/>
       <c r="J15" s="8" t="n"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FH-SCX05</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>FH-2050</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="8" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="30">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A1:A2"/>
